--- a/Algebra y Estadistica/DESVIO ESTANDAR.xlsx
+++ b/Algebra y Estadistica/DESVIO ESTANDAR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emi\Documents\ITU DESARROLLO\Segundo Semestre\Algebra y Estadistica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Desarrollo De Software 2023 Junin\Segundo Semestre\Algebra y Estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E2ADF9-9690-48A1-A2A3-6A373E40272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F05053-C675-4A1B-8A05-037F3BF4A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D6B49110-46F4-4E48-A975-5FFF007EC93D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>PROMEDIO</t>
   </si>
@@ -50,6 +50,45 @@
   <si>
     <t>DESESTANDAR</t>
   </si>
+  <si>
+    <t>Numero de datos</t>
+  </si>
+  <si>
+    <t>(xi-X)^2</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Desviacion estandar</t>
+  </si>
+  <si>
+    <t>(xi-X)</t>
+  </si>
+  <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t>PROBABILITY DENSITY</t>
+  </si>
+  <si>
+    <t>CUMULATIVE PROBABILITY</t>
+  </si>
+  <si>
+    <t>DISTRIBUCION NORMAL</t>
+  </si>
+  <si>
+    <t>Mean:</t>
+  </si>
+  <si>
+    <t>Std. Dev.:</t>
+  </si>
+  <si>
+    <t>false: probability mass function</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
 </sst>
 </file>
 
@@ -64,12 +103,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,9 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,14 +186,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.39560411198600182"/>
-          <c:y val="3.7037037037037035E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prob Density Population</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -165,6 +249,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Prob Density</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -175,205 +262,382 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$63</c:f>
+              <c:f>Sheet1!$I$4:$I$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>199</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>155</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>7.083229909507772E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7025905231002997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3496542471931494E-3</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>198</c:v>
+                  <c:v>9.0224894251776152E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156</c:v>
+                  <c:v>9.7187515498697603E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>171</c:v>
+                  <c:v>1.043568080220692E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>189</c:v>
+                  <c:v>1.1170106200484054E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>192</c:v>
+                  <c:v>1.19184567879585E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166</c:v>
+                  <c:v>1.2676780157866083E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>141</c:v>
+                  <c:v>1.3440768468818092E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>157</c:v>
+                  <c:v>1.4205791943230425E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>171</c:v>
+                  <c:v>1.4966939670591458E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>195</c:v>
+                  <c:v>1.5719067360314653E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>157</c:v>
+                  <c:v>1.6456851510429714E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>195</c:v>
+                  <c:v>1.717484928356201E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>161</c:v>
+                  <c:v>1.7867563215823144E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170</c:v>
+                  <c:v>1.8529509732670403E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>153</c:v>
+                  <c:v>1.9155290313575726E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>172</c:v>
+                  <c:v>1.9739664039180631E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>196</c:v>
+                  <c:v>2.0277620174636232E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>155</c:v>
+                  <c:v>2.0764449394434285E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>169</c:v>
+                  <c:v>2.1195812239736923E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>159</c:v>
+                  <c:v>2.1567803420513485E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>161</c:v>
+                  <c:v>2.1877010632106675E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>141</c:v>
+                  <c:v>2.2120566648453341E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>151</c:v>
+                  <c:v>2.2296193580213387E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>153</c:v>
+                  <c:v>2.2402238342548952E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>154</c:v>
+                  <c:v>2.2437698560260556E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>177</c:v>
+                  <c:v>2.2402238342548952E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>194</c:v>
+                  <c:v>2.2296193580213387E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>163</c:v>
+                  <c:v>2.2120566648453341E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>178</c:v>
+                  <c:v>2.1877010632106675E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>167</c:v>
+                  <c:v>2.1567803420513485E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170</c:v>
+                  <c:v>2.1195812239736923E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>173</c:v>
+                  <c:v>2.0764449394434285E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>154</c:v>
+                  <c:v>2.0277620174636232E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>140</c:v>
+                  <c:v>1.9739664039180631E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>145</c:v>
+                  <c:v>1.9155290313575726E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>141</c:v>
+                  <c:v>1.8529509732670403E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>164</c:v>
+                  <c:v>1.7867563215823144E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>166</c:v>
+                  <c:v>1.717484928356201E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>179</c:v>
+                  <c:v>1.6456851510429714E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>145</c:v>
+                  <c:v>1.5719067360314653E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>196</c:v>
+                  <c:v>1.4966939670591458E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>172</c:v>
+                  <c:v>1.4205791943230425E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>165</c:v>
+                  <c:v>1.3440768468818092E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>189</c:v>
+                  <c:v>1.2676780157866083E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>163</c:v>
+                  <c:v>1.19184567879585E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>196</c:v>
+                  <c:v>1.1170106200484054E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>175</c:v>
+                  <c:v>1.043568080220692E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>179</c:v>
+                  <c:v>9.7187515498697603E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>143</c:v>
+                  <c:v>9.0224894251776152E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>169</c:v>
+                  <c:v>8.3496542471931494E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>180</c:v>
+                  <c:v>7.7025905231002997E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>200</c:v>
+                  <c:v>7.083229909507772E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>142</c:v>
+                  <c:v>6.4930997472736167E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>182</c:v>
+                  <c:v>5.9333370447878309E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>171</c:v>
+                  <c:v>5.4047072185447768E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>173</c:v>
+                  <c:v>4.9076268557412678E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>141</c:v>
+                  <c:v>4.4421897409490192E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -381,230 +645,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA4A-4F97-9EC1-5AF053EF79A0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EA4A-4F97-9EC1-5AF053EF79A0}"/>
+              <c16:uniqueId val="{00000000-BFB5-420C-93B1-139810F2AE9F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -616,18 +657,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1399138415"/>
-        <c:axId val="1399135087"/>
+        <c:axId val="320021871"/>
+        <c:axId val="320020623"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1399138415"/>
+        <c:axId val="320021871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -664,7 +705,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1399135087"/>
+        <c:crossAx val="320020623"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -672,7 +713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1399135087"/>
+        <c:axId val="320020623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +764,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1399138415"/>
+        <c:crossAx val="320021871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -735,37 +776,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -851,7 +861,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -959,6 +969,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -969,6 +984,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1000,6 +1020,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1358,22 +1381,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>494110</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>158352</xdr:rowOff>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>51197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>208360</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44052</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>386953</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127397</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8FFB9A-A16B-4769-AE2D-54D83A17B28F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5AF9608-EE9B-4A92-B894-3B3EF24433B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,19 +1714,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DAD7B5-C0A7-47F6-9202-AF2378D711E0}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="36" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1717,7 +1744,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1731,1066 +1758,2035 @@
         <v>10</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3">
         <f>_xlfn.NORM.DIST($B4,$B1,$B2, $C4)</f>
         <v>0.99999999818249219</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">RANDBETWEEN(140,200)</f>
-        <v>177</v>
-      </c>
-      <c r="B4">
+        <v>145</v>
+      </c>
+      <c r="B4" s="2">
         <v>199</v>
       </c>
       <c r="C4">
         <v>140</v>
       </c>
       <c r="D4">
-        <f>COUNTIF($B$4:$B$23,C4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f>COUNTIF($B$4:$B$63,C4)</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>B4-$B$64</f>
+        <v>31.166666666666657</v>
+      </c>
+      <c r="F4">
+        <f>E4^2</f>
+        <v>971.36111111111052</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3">
+        <v>167</v>
+      </c>
+      <c r="I4" s="4">
+        <v>140</v>
+      </c>
+      <c r="J4" s="4">
+        <f>_xlfn.NORM.DIST(I4,$H$4,$H$5,FALSE)</f>
+        <v>7.083229909507772E-3</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A23" ca="1" si="0">RANDBETWEEN(140,200)</f>
-        <v>141</v>
-      </c>
-      <c r="B5">
+        <v>172</v>
+      </c>
+      <c r="B5" s="2">
         <v>141</v>
       </c>
       <c r="C5">
         <v>141</v>
       </c>
       <c r="D5">
-        <f>COUNTIF($B$4:$B$23,C5)</f>
-        <v>2</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D5:D63" si="1">COUNTIF($B$4:$B$63,C5)</f>
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f>B5-$B$64</f>
+        <v>-26.833333333333343</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F63" si="2">E5^2</f>
+        <v>720.02777777777828</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3">
+        <v>17.78</v>
+      </c>
+      <c r="I5" s="4">
+        <v>141</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J63" si="3">_xlfn.NORM.DIST(I5,$H$4,$H$5,FALSE)</f>
+        <v>7.7025905231002997E-3</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
-      </c>
-      <c r="B6">
+        <v>149</v>
+      </c>
+      <c r="B6" s="2">
         <v>155</v>
       </c>
       <c r="C6">
         <v>142</v>
       </c>
       <c r="D6">
-        <f>COUNTIF($B$4:$B$23,C6)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>B6-$B$64</f>
+        <v>-12.833333333333343</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>164.69444444444468</v>
+      </c>
+      <c r="I6" s="4">
+        <v>142</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="3"/>
+        <v>8.3496542471931494E-3</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="B7">
+        <v>162</v>
+      </c>
+      <c r="B7" s="2">
         <v>198</v>
       </c>
       <c r="C7">
         <v>143</v>
       </c>
       <c r="D7">
-        <f>COUNTIF($B$4:$B$23,C7)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E63" si="4">B7-$B$64</f>
+        <v>30.166666666666657</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>910.02777777777726</v>
+      </c>
+      <c r="I7" s="4">
+        <v>143</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="3"/>
+        <v>9.0224894251776152E-3</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="B8" s="2">
         <v>156</v>
       </c>
       <c r="C8">
         <v>144</v>
       </c>
       <c r="D8">
-        <f>COUNTIF($B$4:$B$23,C8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>-11.833333333333343</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>140.027777777778</v>
+      </c>
+      <c r="I8" s="4">
+        <v>144</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="3"/>
+        <v>9.7187515498697603E-3</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="B9">
+        <v>185</v>
+      </c>
+      <c r="B9" s="2">
         <v>171</v>
       </c>
       <c r="C9">
         <v>145</v>
       </c>
       <c r="D9">
-        <f>COUNTIF($B$4:$B$23,C9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>3.1666666666666572</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>10.027777777777718</v>
+      </c>
+      <c r="I9" s="4">
+        <v>145</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="3"/>
+        <v>1.043568080220692E-2</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="B10">
+        <v>151</v>
+      </c>
+      <c r="B10" s="2">
         <v>189</v>
       </c>
       <c r="C10">
         <v>146</v>
       </c>
       <c r="D10">
-        <f>COUNTIF($B$4:$B$23,C10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>21.166666666666657</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>448.02777777777737</v>
+      </c>
+      <c r="I10" s="4">
+        <v>146</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1170106200484054E-2</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>166</v>
-      </c>
-      <c r="B11">
+        <v>164</v>
+      </c>
+      <c r="B11" s="2">
         <v>192</v>
       </c>
       <c r="C11">
         <v>147</v>
       </c>
       <c r="D11">
-        <f>COUNTIF($B$4:$B$23,C11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>24.166666666666657</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>584.02777777777737</v>
+      </c>
+      <c r="I11" s="4">
+        <v>147</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="3"/>
+        <v>1.19184567879585E-2</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="B12">
+        <v>192</v>
+      </c>
+      <c r="B12" s="2">
         <v>166</v>
       </c>
       <c r="C12">
         <v>148</v>
       </c>
       <c r="D12">
-        <f>COUNTIF($B$4:$B$23,C12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>-1.8333333333333428</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>3.3611111111111458</v>
+      </c>
+      <c r="I12" s="4">
+        <v>148</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2676780157866083E-2</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
-      </c>
-      <c r="B13">
+        <v>161</v>
+      </c>
+      <c r="B13" s="2">
         <v>141</v>
       </c>
       <c r="C13">
         <v>149</v>
       </c>
       <c r="D13">
-        <f>COUNTIF($B$4:$B$23,C13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>-26.833333333333343</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>720.02777777777828</v>
+      </c>
+      <c r="I13" s="4">
+        <v>149</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="3"/>
+        <v>1.3440768468818092E-2</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="B14">
+        <v>147</v>
+      </c>
+      <c r="B14" s="2">
         <v>157</v>
       </c>
       <c r="C14">
         <v>150</v>
       </c>
       <c r="D14">
-        <f>COUNTIF($B$4:$B$23,C14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>-10.833333333333343</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>117.36111111111131</v>
+      </c>
+      <c r="I14" s="4">
+        <v>150</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4205791943230425E-2</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>156</v>
-      </c>
-      <c r="B15">
+        <v>167</v>
+      </c>
+      <c r="B15" s="2">
         <v>171</v>
       </c>
       <c r="C15">
         <v>151</v>
       </c>
       <c r="D15">
-        <f>COUNTIF($B$4:$B$23,C15)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>3.1666666666666572</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>10.027777777777718</v>
+      </c>
+      <c r="I15" s="4">
+        <v>151</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4966939670591458E-2</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="B16">
+        <v>151</v>
+      </c>
+      <c r="B16" s="2">
         <v>195</v>
       </c>
       <c r="C16">
         <v>152</v>
       </c>
       <c r="D16">
-        <f>COUNTIF($B$4:$B$23,C16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>27.166666666666657</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>738.02777777777726</v>
+      </c>
+      <c r="I16" s="4">
+        <v>152</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5719067360314653E-2</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
-      </c>
-      <c r="B17">
+        <v>150</v>
+      </c>
+      <c r="B17" s="2">
         <v>157</v>
       </c>
       <c r="C17">
         <v>153</v>
       </c>
       <c r="D17">
-        <f>COUNTIF($B$4:$B$23,C17)</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>-10.833333333333343</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>117.36111111111131</v>
+      </c>
+      <c r="I17" s="4">
+        <v>153</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="3"/>
+        <v>1.6456851510429714E-2</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
-      </c>
-      <c r="B18">
+        <v>175</v>
+      </c>
+      <c r="B18" s="2">
         <v>195</v>
       </c>
       <c r="C18">
         <v>154</v>
       </c>
       <c r="D18">
-        <f>COUNTIF($B$4:$B$23,C18)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>27.166666666666657</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>738.02777777777726</v>
+      </c>
+      <c r="I18" s="4">
+        <v>154</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="3"/>
+        <v>1.717484928356201E-2</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
-      </c>
-      <c r="B19">
+        <v>190</v>
+      </c>
+      <c r="B19" s="2">
         <v>161</v>
       </c>
       <c r="C19">
         <v>155</v>
       </c>
       <c r="D19">
-        <f>COUNTIF($B$4:$B$23,C19)</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>-6.8333333333333428</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>46.694444444444571</v>
+      </c>
+      <c r="I19" s="4">
+        <v>155</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7867563215823144E-2</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>164</v>
-      </c>
-      <c r="B20">
+        <v>161</v>
+      </c>
+      <c r="B20" s="2">
         <v>170</v>
       </c>
       <c r="C20">
         <v>156</v>
       </c>
       <c r="D20">
-        <f>COUNTIF($B$4:$B$23,C20)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>2.1666666666666572</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>4.6944444444444038</v>
+      </c>
+      <c r="I20" s="4">
+        <v>156</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="3"/>
+        <v>1.8529509732670403E-2</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="B21">
+        <v>145</v>
+      </c>
+      <c r="B21" s="2">
         <v>153</v>
       </c>
       <c r="C21">
         <v>157</v>
       </c>
       <c r="D21">
-        <f>COUNTIF($B$4:$B$23,C21)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>-14.833333333333343</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>220.02777777777806</v>
+      </c>
+      <c r="I21" s="4">
+        <v>157</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="3"/>
+        <v>1.9155290313575726E-2</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
-      </c>
-      <c r="B22">
+        <v>187</v>
+      </c>
+      <c r="B22" s="2">
         <v>172</v>
       </c>
       <c r="C22">
         <v>158</v>
       </c>
       <c r="D22">
-        <f>COUNTIF($B$4:$B$23,C22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666572</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>17.361111111111033</v>
+      </c>
+      <c r="I22" s="4">
+        <v>158</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="3"/>
+        <v>1.9739664039180631E-2</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
-      </c>
-      <c r="B23">
+        <v>199</v>
+      </c>
+      <c r="B23" s="2">
         <v>196</v>
       </c>
       <c r="C23">
         <v>159</v>
       </c>
       <c r="D23">
-        <f>COUNTIF($B$4:$B$23,C23)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>28.166666666666657</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>793.36111111111063</v>
+      </c>
+      <c r="I23" s="4">
+        <v>159</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0277620174636232E-2</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <f ca="1">RANDBETWEEN(140,200)</f>
-        <v>196</v>
-      </c>
-      <c r="B24">
+        <v>140</v>
+      </c>
+      <c r="B24" s="2">
         <v>155</v>
       </c>
       <c r="C24">
         <v>160</v>
       </c>
       <c r="D24">
-        <f>COUNTIF($B$4:$B$23,C24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>-12.833333333333343</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>164.69444444444468</v>
+      </c>
+      <c r="I24" s="4">
+        <v>160</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0764449394434285E-2</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" ref="A25:A63" ca="1" si="1">RANDBETWEEN(140,200)</f>
-        <v>165</v>
-      </c>
-      <c r="B25">
+        <f t="shared" ref="A25:A63" ca="1" si="5">RANDBETWEEN(140,200)</f>
+        <v>152</v>
+      </c>
+      <c r="B25" s="2">
         <v>169</v>
       </c>
       <c r="C25">
         <v>161</v>
       </c>
       <c r="D25">
-        <f>COUNTIF($B$4:$B$23,C25)</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>1.1666666666666572</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1.361111111111089</v>
+      </c>
+      <c r="I25" s="4">
+        <v>161</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1195812239736923E-2</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" ca="1" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="B26">
+        <f t="shared" ca="1" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="B26" s="2">
         <v>159</v>
       </c>
       <c r="C26">
         <v>162</v>
       </c>
       <c r="D26">
-        <f>COUNTIF($B$4:$B$23,C26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>-8.8333333333333428</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>78.027777777777942</v>
+      </c>
+      <c r="I26" s="4">
+        <v>162</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1567803420513485E-2</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" ca="1" si="1"/>
-        <v>143</v>
-      </c>
-      <c r="B27">
+        <f t="shared" ca="1" si="5"/>
+        <v>147</v>
+      </c>
+      <c r="B27" s="2">
         <v>161</v>
       </c>
       <c r="C27">
         <v>163</v>
       </c>
       <c r="D27">
-        <f>COUNTIF($B$4:$B$23,C27)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>-6.8333333333333428</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>46.694444444444571</v>
+      </c>
+      <c r="I27" s="4">
+        <v>163</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1877010632106675E-2</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" ca="1" si="1"/>
-        <v>167</v>
-      </c>
-      <c r="B28">
+        <f t="shared" ca="1" si="5"/>
+        <v>197</v>
+      </c>
+      <c r="B28" s="2">
         <v>141</v>
       </c>
       <c r="C28">
         <v>164</v>
       </c>
       <c r="D28">
-        <f>COUNTIF($B$4:$B$23,C28)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>-26.833333333333343</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>720.02777777777828</v>
+      </c>
+      <c r="I28" s="4">
+        <v>164</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2120566648453341E-2</v>
+      </c>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" ca="1" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="B29">
+        <f t="shared" ca="1" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="B29" s="2">
         <v>151</v>
       </c>
       <c r="C29">
         <v>165</v>
       </c>
       <c r="D29">
-        <f>COUNTIF($B$4:$B$23,C29)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>-16.833333333333343</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>283.36111111111143</v>
+      </c>
+      <c r="I29" s="4">
+        <v>165</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2296193580213387E-2</v>
+      </c>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" ca="1" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="B30">
+        <f t="shared" ca="1" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="B30" s="2">
         <v>153</v>
       </c>
       <c r="C30">
         <v>166</v>
       </c>
       <c r="D30">
-        <f>COUNTIF($B$4:$B$23,C30)</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>-14.833333333333343</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>220.02777777777806</v>
+      </c>
+      <c r="I30" s="4">
+        <v>166</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2402238342548952E-2</v>
+      </c>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" ca="1" si="1"/>
-        <v>179</v>
-      </c>
-      <c r="B31">
+        <f t="shared" ca="1" si="5"/>
+        <v>173</v>
+      </c>
+      <c r="B31" s="2">
         <v>154</v>
       </c>
       <c r="C31">
         <v>167</v>
       </c>
       <c r="D31">
-        <f>COUNTIF($B$4:$B$23,C31)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>-13.833333333333343</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>191.36111111111137</v>
+      </c>
+      <c r="I31" s="4">
+        <v>167</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2437698560260556E-2</v>
+      </c>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" ca="1" si="1"/>
-        <v>151</v>
-      </c>
-      <c r="B32">
+        <f t="shared" ca="1" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="B32" s="2">
         <v>177</v>
       </c>
       <c r="C32">
         <v>168</v>
       </c>
       <c r="D32">
-        <f>COUNTIF($B$4:$B$23,C32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>9.1666666666666572</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>84.027777777777601</v>
+      </c>
+      <c r="I32" s="4">
+        <v>168</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2402238342548952E-2</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ca="1" si="1"/>
-        <v>162</v>
-      </c>
-      <c r="B33">
+        <f t="shared" ca="1" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="B33" s="2">
         <v>194</v>
       </c>
       <c r="C33">
         <v>169</v>
       </c>
       <c r="D33">
-        <f>COUNTIF($B$4:$B$23,C33)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>26.166666666666657</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>684.694444444444</v>
+      </c>
+      <c r="I33" s="4">
+        <v>169</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2296193580213387E-2</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" ca="1" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="B34">
+        <f t="shared" ca="1" si="5"/>
+        <v>149</v>
+      </c>
+      <c r="B34" s="2">
         <v>163</v>
       </c>
       <c r="C34">
         <v>170</v>
       </c>
       <c r="D34">
-        <f>COUNTIF($B$4:$B$23,C34)</f>
-        <v>1</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>-4.8333333333333428</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>23.361111111111203</v>
+      </c>
+      <c r="I34" s="4">
+        <v>170</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2120566648453341E-2</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" ca="1" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="B35">
+        <f t="shared" ca="1" si="5"/>
+        <v>198</v>
+      </c>
+      <c r="B35" s="2">
         <v>178</v>
       </c>
       <c r="C35">
         <v>171</v>
       </c>
       <c r="D35">
-        <f>COUNTIF($B$4:$B$23,C35)</f>
-        <v>2</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>10.166666666666657</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>103.36111111111092</v>
+      </c>
+      <c r="I35" s="4">
+        <v>171</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1877010632106675E-2</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" ca="1" si="1"/>
-        <v>198</v>
-      </c>
-      <c r="B36">
+        <f t="shared" ca="1" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="B36" s="2">
         <v>167</v>
       </c>
       <c r="C36">
         <v>172</v>
       </c>
       <c r="D36">
-        <f>COUNTIF($B$4:$B$23,C36)</f>
-        <v>1</v>
-      </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>-0.83333333333334281</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.69444444444446018</v>
+      </c>
+      <c r="I36" s="4">
+        <v>172</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1567803420513485E-2</v>
+      </c>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" ca="1" si="1"/>
-        <v>178</v>
-      </c>
-      <c r="B37">
+        <f t="shared" ca="1" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="B37" s="2">
         <v>170</v>
       </c>
       <c r="C37">
         <v>173</v>
       </c>
       <c r="D37">
-        <f>COUNTIF($B$4:$B$23,C37)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>2.1666666666666572</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>4.6944444444444038</v>
+      </c>
+      <c r="I37" s="4">
+        <v>173</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1195812239736923E-2</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" ca="1" si="1"/>
-        <v>146</v>
-      </c>
-      <c r="B38">
+        <f t="shared" ca="1" si="5"/>
+        <v>178</v>
+      </c>
+      <c r="B38" s="2">
         <v>173</v>
       </c>
       <c r="C38">
         <v>174</v>
       </c>
       <c r="D38">
-        <f>COUNTIF($B$4:$B$23,C38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>5.1666666666666572</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>26.694444444444347</v>
+      </c>
+      <c r="I38" s="4">
+        <v>174</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0764449394434285E-2</v>
+      </c>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" ca="1" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="B39">
+        <f t="shared" ca="1" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="B39" s="2">
         <v>154</v>
       </c>
       <c r="C39">
         <v>175</v>
       </c>
       <c r="D39">
-        <f>COUNTIF($B$4:$B$23,C39)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>-13.833333333333343</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>191.36111111111137</v>
+      </c>
+      <c r="I39" s="4">
+        <v>175</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0277620174636232E-2</v>
+      </c>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" ca="1" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="B40">
+        <f t="shared" ca="1" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="B40" s="2">
         <v>140</v>
       </c>
       <c r="C40">
         <v>176</v>
       </c>
       <c r="D40">
-        <f>COUNTIF($B$4:$B$23,C40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>-27.833333333333343</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>774.69444444444503</v>
+      </c>
+      <c r="I40" s="4">
+        <v>176</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="3"/>
+        <v>1.9739664039180631E-2</v>
+      </c>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" ca="1" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="B41">
+        <f t="shared" ca="1" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="B41" s="2">
         <v>145</v>
       </c>
       <c r="C41">
         <v>177</v>
       </c>
       <c r="D41">
-        <f>COUNTIF($B$4:$B$23,C41)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>-22.833333333333343</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>521.36111111111154</v>
+      </c>
+      <c r="I41" s="4">
+        <v>177</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="3"/>
+        <v>1.9155290313575726E-2</v>
+      </c>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" ca="1" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="B42">
+        <f t="shared" ca="1" si="5"/>
+        <v>149</v>
+      </c>
+      <c r="B42" s="2">
         <v>141</v>
       </c>
       <c r="C42">
         <v>178</v>
       </c>
       <c r="D42">
-        <f>COUNTIF($B$4:$B$23,C42)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>-26.833333333333343</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>720.02777777777828</v>
+      </c>
+      <c r="I42" s="4">
+        <v>178</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="3"/>
+        <v>1.8529509732670403E-2</v>
+      </c>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" ca="1" si="1"/>
-        <v>179</v>
-      </c>
-      <c r="B43">
+        <f t="shared" ca="1" si="5"/>
+        <v>173</v>
+      </c>
+      <c r="B43" s="2">
         <v>164</v>
       </c>
       <c r="C43">
         <v>179</v>
       </c>
       <c r="D43">
-        <f>COUNTIF($B$4:$B$23,C43)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>-3.8333333333333428</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>14.694444444444517</v>
+      </c>
+      <c r="I43" s="4">
+        <v>179</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7867563215823144E-2</v>
+      </c>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" ca="1" si="1"/>
-        <v>158</v>
-      </c>
-      <c r="B44">
+        <f t="shared" ca="1" si="5"/>
+        <v>185</v>
+      </c>
+      <c r="B44" s="2">
         <v>166</v>
       </c>
       <c r="C44">
         <v>180</v>
       </c>
       <c r="D44">
-        <f>COUNTIF($B$4:$B$23,C44)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>-1.8333333333333428</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>3.3611111111111458</v>
+      </c>
+      <c r="I44" s="4">
+        <v>180</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="3"/>
+        <v>1.717484928356201E-2</v>
+      </c>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" ca="1" si="1"/>
-        <v>189</v>
-      </c>
-      <c r="B45">
+        <f t="shared" ca="1" si="5"/>
+        <v>199</v>
+      </c>
+      <c r="B45" s="2">
         <v>179</v>
       </c>
       <c r="C45">
         <v>181</v>
       </c>
       <c r="D45">
-        <f>COUNTIF($B$4:$B$23,C45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>11.166666666666657</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>124.69444444444423</v>
+      </c>
+      <c r="I45" s="4">
+        <v>181</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="3"/>
+        <v>1.6456851510429714E-2</v>
+      </c>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" ca="1" si="1"/>
-        <v>158</v>
-      </c>
-      <c r="B46">
+        <f t="shared" ca="1" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="B46" s="2">
         <v>145</v>
       </c>
       <c r="C46">
         <v>182</v>
       </c>
       <c r="D46">
-        <f>COUNTIF($B$4:$B$23,C46)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>-22.833333333333343</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>521.36111111111154</v>
+      </c>
+      <c r="I46" s="4">
+        <v>182</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5719067360314653E-2</v>
+      </c>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" ca="1" si="1"/>
-        <v>151</v>
-      </c>
-      <c r="B47">
+        <f t="shared" ca="1" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="B47" s="2">
         <v>196</v>
       </c>
       <c r="C47">
         <v>183</v>
       </c>
       <c r="D47">
-        <f>COUNTIF($B$4:$B$23,C47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>28.166666666666657</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>793.36111111111063</v>
+      </c>
+      <c r="I47" s="4">
+        <v>183</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4966939670591458E-2</v>
+      </c>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" ca="1" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="B48">
+        <f t="shared" ca="1" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="B48" s="2">
         <v>172</v>
       </c>
       <c r="C48">
         <v>184</v>
       </c>
       <c r="D48">
-        <f>COUNTIF($B$4:$B$23,C48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666572</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>17.361111111111033</v>
+      </c>
+      <c r="I48" s="4">
+        <v>184</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4205791943230425E-2</v>
+      </c>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" ca="1" si="1"/>
-        <v>182</v>
-      </c>
-      <c r="B49">
+        <f t="shared" ca="1" si="5"/>
+        <v>178</v>
+      </c>
+      <c r="B49" s="2">
         <v>165</v>
       </c>
       <c r="C49">
         <v>185</v>
       </c>
       <c r="D49">
-        <f>COUNTIF($B$4:$B$23,C49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>-2.8333333333333428</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>8.0277777777778319</v>
+      </c>
+      <c r="I49" s="4">
+        <v>185</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="3"/>
+        <v>1.3440768468818092E-2</v>
+      </c>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" ca="1" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="B50">
+        <f t="shared" ca="1" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="B50" s="2">
         <v>189</v>
       </c>
       <c r="C50">
         <v>186</v>
       </c>
       <c r="D50">
-        <f>COUNTIF($B$4:$B$23,C50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>21.166666666666657</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>448.02777777777737</v>
+      </c>
+      <c r="I50" s="4">
+        <v>186</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2676780157866083E-2</v>
+      </c>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" ca="1" si="1"/>
-        <v>187</v>
-      </c>
-      <c r="B51">
+        <f t="shared" ca="1" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="B51" s="2">
         <v>163</v>
       </c>
       <c r="C51">
         <v>187</v>
       </c>
       <c r="D51">
-        <f>COUNTIF($B$4:$B$23,C51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>-4.8333333333333428</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>23.361111111111203</v>
+      </c>
+      <c r="I51" s="4">
+        <v>187</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" si="3"/>
+        <v>1.19184567879585E-2</v>
+      </c>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" ca="1" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="B52">
+        <f t="shared" ca="1" si="5"/>
+        <v>186</v>
+      </c>
+      <c r="B52" s="2">
         <v>196</v>
       </c>
       <c r="C52">
         <v>188</v>
       </c>
       <c r="D52">
-        <f>COUNTIF($B$4:$B$23,C52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>28.166666666666657</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>793.36111111111063</v>
+      </c>
+      <c r="I52" s="4">
+        <v>188</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1170106200484054E-2</v>
+      </c>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" ca="1" si="1"/>
-        <v>199</v>
-      </c>
-      <c r="B53">
+        <f t="shared" ca="1" si="5"/>
+        <v>189</v>
+      </c>
+      <c r="B53" s="2">
         <v>175</v>
       </c>
       <c r="C53">
         <v>189</v>
       </c>
       <c r="D53">
-        <f>COUNTIF($B$4:$B$23,C53)</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>7.1666666666666572</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>51.361111111110972</v>
+      </c>
+      <c r="I53" s="4">
+        <v>189</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="3"/>
+        <v>1.043568080220692E-2</v>
+      </c>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" ca="1" si="1"/>
-        <v>196</v>
-      </c>
-      <c r="B54">
+        <f t="shared" ca="1" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="B54" s="2">
         <v>179</v>
       </c>
       <c r="C54">
         <v>190</v>
       </c>
       <c r="D54">
-        <f>COUNTIF($B$4:$B$23,C54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>11.166666666666657</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>124.69444444444423</v>
+      </c>
+      <c r="I54" s="4">
+        <v>190</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="3"/>
+        <v>9.7187515498697603E-3</v>
+      </c>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" ca="1" si="1"/>
-        <v>163</v>
-      </c>
-      <c r="B55">
+        <f t="shared" ca="1" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="B55" s="2">
         <v>143</v>
       </c>
       <c r="C55">
         <v>191</v>
       </c>
       <c r="D55">
-        <f>COUNTIF($B$4:$B$23,C55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>-24.833333333333343</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>616.69444444444491</v>
+      </c>
+      <c r="I55" s="4">
+        <v>191</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" si="3"/>
+        <v>9.0224894251776152E-3</v>
+      </c>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" ca="1" si="1"/>
-        <v>149</v>
-      </c>
-      <c r="B56">
+        <f t="shared" ca="1" si="5"/>
+        <v>193</v>
+      </c>
+      <c r="B56" s="2">
         <v>169</v>
       </c>
       <c r="C56">
         <v>192</v>
       </c>
       <c r="D56">
-        <f>COUNTIF($B$4:$B$23,C56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>1.1666666666666572</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>1.361111111111089</v>
+      </c>
+      <c r="I56" s="4">
+        <v>192</v>
+      </c>
+      <c r="J56" s="4">
+        <f t="shared" si="3"/>
+        <v>8.3496542471931494E-3</v>
+      </c>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" ca="1" si="1"/>
-        <v>173</v>
-      </c>
-      <c r="B57">
+        <f t="shared" ca="1" si="5"/>
+        <v>199</v>
+      </c>
+      <c r="B57" s="2">
         <v>180</v>
       </c>
       <c r="C57">
         <v>193</v>
       </c>
       <c r="D57">
-        <f>COUNTIF($B$4:$B$23,C57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>12.166666666666657</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>148.02777777777754</v>
+      </c>
+      <c r="I57" s="4">
+        <v>193</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="3"/>
+        <v>7.7025905231002997E-3</v>
+      </c>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" ca="1" si="1"/>
-        <v>187</v>
-      </c>
-      <c r="B58">
+        <f t="shared" ca="1" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="B58" s="2">
         <v>200</v>
       </c>
       <c r="C58">
         <v>194</v>
       </c>
       <c r="D58">
-        <f>COUNTIF($B$4:$B$23,C58)</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>32.166666666666657</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>1034.6944444444439</v>
+      </c>
+      <c r="I58" s="4">
+        <v>194</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="3"/>
+        <v>7.083229909507772E-3</v>
+      </c>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" ca="1" si="1"/>
-        <v>197</v>
-      </c>
-      <c r="B59">
+        <f t="shared" ca="1" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="B59" s="2">
         <v>142</v>
       </c>
       <c r="C59">
         <v>195</v>
       </c>
       <c r="D59">
-        <f>COUNTIF($B$4:$B$23,C59)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>-25.833333333333343</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>667.36111111111165</v>
+      </c>
+      <c r="I59" s="4">
+        <v>195</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="3"/>
+        <v>6.4930997472736167E-3</v>
+      </c>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" ca="1" si="1"/>
-        <v>183</v>
-      </c>
-      <c r="B60">
+        <f t="shared" ca="1" si="5"/>
+        <v>176</v>
+      </c>
+      <c r="B60" s="2">
         <v>182</v>
       </c>
       <c r="C60">
         <v>196</v>
       </c>
       <c r="D60">
-        <f>COUNTIF($B$4:$B$23,C60)</f>
-        <v>1</v>
-      </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>14.166666666666657</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>200.69444444444417</v>
+      </c>
+      <c r="I60" s="4">
+        <v>196</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="3"/>
+        <v>5.9333370447878309E-3</v>
+      </c>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" ca="1" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="B61">
+        <f t="shared" ca="1" si="5"/>
+        <v>197</v>
+      </c>
+      <c r="B61" s="2">
         <v>171</v>
       </c>
       <c r="C61">
         <v>197</v>
       </c>
       <c r="D61">
-        <f>COUNTIF($B$4:$B$23,C61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>3.1666666666666572</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>10.027777777777718</v>
+      </c>
+      <c r="I61" s="4">
+        <v>197</v>
+      </c>
+      <c r="J61" s="4">
+        <f t="shared" si="3"/>
+        <v>5.4047072185447768E-3</v>
+      </c>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" ca="1" si="1"/>
-        <v>179</v>
-      </c>
-      <c r="B62">
+        <f t="shared" ca="1" si="5"/>
+        <v>149</v>
+      </c>
+      <c r="B62" s="2">
         <v>173</v>
       </c>
       <c r="C62">
         <v>198</v>
       </c>
       <c r="D62">
-        <f>COUNTIF($B$4:$B$23,C62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>5.1666666666666572</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>26.694444444444347</v>
+      </c>
+      <c r="I62" s="4">
+        <v>198</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" si="3"/>
+        <v>4.9076268557412678E-3</v>
+      </c>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" ca="1" si="1"/>
-        <v>187</v>
-      </c>
-      <c r="B63">
+        <f t="shared" ca="1" si="5"/>
+        <v>146</v>
+      </c>
+      <c r="B63" s="2">
         <v>141</v>
       </c>
       <c r="C63">
         <v>199</v>
       </c>
       <c r="D63">
-        <f>COUNTIF($B$4:$B$23,C63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>-26.833333333333343</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>720.02777777777828</v>
+      </c>
+      <c r="I63" s="4">
+        <v>199</v>
+      </c>
+      <c r="J63" s="4">
+        <f t="shared" si="3"/>
+        <v>4.4421897409490192E-3</v>
+      </c>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B64">
-        <f>AVERAGE(B4:B23)</f>
-        <v>171.75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B64" s="5">
+        <f>AVERAGE(B4:B63)</f>
+        <v>167.83333333333334</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="4">
+        <f>SUM(J4:J63)</f>
+        <v>0.90529011831596495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B65">
-        <f>MODE(B4:B23)</f>
+      <c r="B65" s="5">
+        <f>MODE(B4:B63)</f>
         <v>141</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <f>SUM(F4:F63)</f>
+        <v>18664.333333333339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B66">
-        <f>MEDIAN(B4:B23)</f>
-        <v>170.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B66" s="5">
+        <f>MEDIAN(B4:B63)</f>
+        <v>168</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <f>(F65/59)^2</f>
+        <v>100073.92668134962</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="5">
         <f>VAR(B4:B23)</f>
         <v>377.25</v>
+      </c>
+      <c r="F67">
+        <f>STDEV(B4:B63)</f>
+        <v>17.786079747048259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="5">
+        <f>COUNT(B4:B63)</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
